--- a/data/excel_files_reduced/test_excel_8_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_8_reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6C8779-8E8E-B04D-AA7A-34DC75610FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8CF92-8B3B-A146-8015-321AB16E8A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,10 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +549,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T8"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,15 +666,15 @@
         <v>Older</v>
       </c>
       <c r="P2">
-        <f>AVERAGEIF($B$2:$B$100, B2, $C$2:$C$100)</f>
+        <f>AVERAGEIF(B:B,B2, C:C)</f>
         <v>3</v>
       </c>
       <c r="Q2">
-        <f>COUNTIF($E$2:$E$100, E2)</f>
+        <f>COUNTIF(E:E, E2)</f>
         <v>1</v>
       </c>
       <c r="R2">
-        <f>COUNTIFS($B$2:$B$100, "male", $D$2:$D$100, "Instagram")</f>
+        <f>COUNTIFS(B:B, "male", D:D, "Instagram")</f>
         <v>1</v>
       </c>
       <c r="S2" t="str">
@@ -686,7 +682,7 @@
         <v>M</v>
       </c>
       <c r="T2">
-        <f>SUMIFS($C$2:$C$100, $D$2:$D$100, "Instagram")</f>
+        <f>SUMIFS(C:C, D:D, "Instagram")</f>
         <v>3</v>
       </c>
     </row>
@@ -740,23 +736,23 @@
         <v>Middle-Aged</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3" si="3">AVERAGEIF($B$2:$B$100, B3, $C$2:$C$100)</f>
+        <f>AVERAGEIF(B:B,B3, C:C)</f>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3" si="4">COUNTIF($E$2:$E$100, E3)</f>
+        <f t="shared" ref="Q3" si="3">COUNTIF(E:E, E3)</f>
         <v>1</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3" si="5">COUNTIFS($B$2:$B$100, "male", $D$2:$D$100, "Instagram")</f>
+        <f t="shared" ref="R3" si="4">COUNTIFS(B:B, "male", D:D, "Instagram")</f>
         <v>1</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3" si="6">UPPER(IF(B3="non-binary", "NB", LEFT(B3, 1)))</f>
+        <f t="shared" ref="S3" si="5">UPPER(IF(B3="non-binary", "NB", LEFT(B3, 1)))</f>
         <v>F</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3" si="7">SUMIFS($C$2:$C$100, $D$2:$D$100, "Instagram")</f>
+        <f>SUMIFS(C:C, D:D, "Instagram")</f>
         <v>3</v>
       </c>
     </row>
@@ -770,12 +766,11 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="8.83203125" style="5"/>
     <col min="9" max="9" width="162.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -799,7 +794,7 @@
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -831,7 +826,7 @@
       <c r="F2">
         <v>81</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>180702</v>
       </c>
       <c r="H2">
@@ -864,7 +859,7 @@
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>108490</v>
       </c>
       <c r="H3">

--- a/data/excel_files_reduced/test_excel_8_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_8_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8CF92-8B3B-A146-8015-321AB16E8A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D4D9AE-6DAA-764A-838F-DF80B8902E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>age</t>
   </si>
@@ -117,13 +117,7 @@
     <t>Interest Count</t>
   </si>
   <si>
-    <t>Platform Popularity</t>
-  </si>
-  <si>
     <t>Gender code</t>
-  </si>
-  <si>
-    <t>Sumifs</t>
   </si>
   <si>
     <t>Unnamed: 0</t>
@@ -546,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,14 +603,8 @@
       <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -673,20 +661,12 @@
         <f>COUNTIF(E:E, E2)</f>
         <v>1</v>
       </c>
-      <c r="R2">
-        <f>COUNTIFS(B:B, "male", D:D, "Instagram")</f>
-        <v>1</v>
-      </c>
-      <c r="S2" t="str">
+      <c r="R2" t="str">
         <f>UPPER(IF(B2="non-binary", "NB", LEFT(B2, 1)))</f>
         <v>M</v>
       </c>
-      <c r="T2">
-        <f>SUMIFS(C:C, D:D, "Instagram")</f>
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>46</v>
       </c>
@@ -743,17 +723,9 @@
         <f t="shared" ref="Q3" si="3">COUNTIF(E:E, E3)</f>
         <v>1</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3" si="4">COUNTIFS(B:B, "male", D:D, "Instagram")</f>
-        <v>1</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3" si="5">UPPER(IF(B3="non-binary", "NB", LEFT(B3, 1)))</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3" si="4">UPPER(IF(B3="non-binary", "NB", LEFT(B3, 1)))</f>
         <v>F</v>
-      </c>
-      <c r="T3">
-        <f>SUMIFS(C:C, D:D, "Instagram")</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A7CCC5-E5C1-465B-B6AD-94AFCD97D67E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -777,34 +749,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -812,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -833,7 +805,7 @@
         <v>28.3</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="str">
         <f>IF(VALUE(G2)&gt;100000,Sheet1!$B$2,Sheet1!$B$3)</f>
@@ -845,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -866,7 +838,7 @@
         <v>144.5</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" t="str">
         <f>IF(VALUE(G3)&gt;100000,Sheet1!$B$2,Sheet1!$B$3)</f>
